--- a/orders.xlsx
+++ b/orders.xlsx
@@ -400,7 +400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
@@ -678,6 +678,23 @@
       <c r="C14" t="inlineStr">
         <is>
           <t>ice 3 in 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>31/07/2023 17:27:28</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ice tea</t>
         </is>
       </c>
     </row>

--- a/orders.xlsx
+++ b/orders.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4236" yWindow="1404" windowWidth="17280" windowHeight="9072" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="active_tables" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="todays_orders" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -400,17 +400,17 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="14.109375" customWidth="1" min="1" max="1"/>
-    <col width="21.77734375" customWidth="1" min="2" max="2"/>
-    <col width="12.77734375" customWidth="1" min="3" max="3"/>
+    <col width="13.6640625" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="13.6640625" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -430,274 +430,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>31/07/2023 14:33:17</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ice 3 in 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>31/07/2023 14:34:28</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>ice tea</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4 cheese</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>tea</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>31/07/2023 14:40:47</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>ice 3 in 1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>ice 3 in 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>31/07/2023 14:50:19</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>ice coffee</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>31/07/2023 14:51:47</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>coffee</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4 cheese</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>31/07/2023 14:52:55</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>coffee</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>31/07/2023 14:54:10</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>coffee</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>31/07/2023 16:22:29</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ice 3 in 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>31/07/2023 16:59:33</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>coffee</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4 cheese</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>31/07/2023 17:00:57</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>ice coffee</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>31/07/2023 17:01:46</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>ice coffee</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>tea</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>31/07/2023 17:07:41</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>coffee</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>31/07/2023 17:08:01</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>ice 3 in 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>31/07/2023 17:27:28</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>ice tea</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -710,45 +442,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="13" customWidth="1" min="1" max="1"/>
-    <col width="14.6640625" customWidth="1" min="2" max="2"/>
-    <col width="12.44140625" customWidth="1" min="3" max="3"/>
-    <col width="16" bestFit="1" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Table Number</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Checkout Time</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Grand Total</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="n"/>
-      <c r="E1" s="1" t="n"/>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Grand Grand Total</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>